--- a/archivos/Calculador de Punto de Equilibrio (6 Productos).xlsx
+++ b/archivos/Calculador de Punto de Equilibrio (6 Productos).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Juegos\Mis documentos\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Documentos\Universidad\8vo Cuatrimestre\Metodología de la Investigación\TFG\GAP---Gestion-Accesible-para-PyMEs\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="19515" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Desarrollo" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,66 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,15 +566,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -651,56 +582,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1040,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1061,61 +1076,61 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="77.25" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="22"/>
@@ -1126,115 +1141,115 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="31.5">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="53" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
       <c r="A12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1"/>
     <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="31.5">
@@ -1261,15 +1276,15 @@
         <v/>
       </c>
       <c r="C20" s="15">
-        <f>C10</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="89">
-        <f>D10</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="90">
-        <f>E10</f>
+        <f t="shared" ref="C20:E21" si="0">C10</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="65">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
@@ -1278,19 +1293,19 @@
     <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="14" t="str">
-        <f t="shared" ref="B21:B25" si="0">IF(B11=0,(""),(B11))</f>
+        <f t="shared" ref="B21:B25" si="1">IF(B11=0,(""),(B11))</f>
         <v/>
       </c>
       <c r="C21" s="15">
-        <f>C11</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="89">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="90">
-        <f>E11</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="65">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
@@ -1299,19 +1314,19 @@
     <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C22" s="15">
-        <f t="shared" ref="C22:E22" si="1">C12</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C22:E22" si="2">C12</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="65">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="3"/>
@@ -1320,19 +1335,19 @@
     <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C23" s="15">
-        <f t="shared" ref="C23:E23" si="2">C13</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="89">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C23:E23" si="3">C13</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="65">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
@@ -1341,19 +1356,19 @@
     <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C24" s="15">
-        <f t="shared" ref="C24:E24" si="3">C14</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C24:E24" si="4">C14</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="65">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
@@ -1362,19 +1377,19 @@
     <row r="25" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C25" s="15">
-        <f t="shared" ref="C25:E25" si="4">C15</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C25:E25" si="5">C15</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="65">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
@@ -1389,11 +1404,11 @@
         <f>SUM(C20:C25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="91">
+      <c r="D26" s="66">
         <f>SUM(D20:D25)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="67">
         <f>SUM(E20:E25)</f>
         <v>0</v>
       </c>
@@ -1421,14 +1436,14 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="31.5">
@@ -1467,7 +1482,7 @@
     <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="17" t="str">
-        <f t="shared" ref="B32:B36" si="5">IF(B11=0,(""),(B11))</f>
+        <f t="shared" ref="B32:B36" si="6">IF(B11=0,(""),(B11))</f>
         <v/>
       </c>
       <c r="C32" s="4">
@@ -1485,15 +1500,15 @@
     <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C33" s="4">
-        <f t="shared" ref="C33" si="6">C12</f>
+        <f t="shared" ref="C33" si="7">C12</f>
         <v>0</v>
       </c>
       <c r="D33" s="27" t="e">
-        <f t="shared" ref="D33:D36" si="7">C33/$C$37</f>
+        <f t="shared" ref="D33:D36" si="8">C33/$C$37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="3"/>
@@ -1503,15 +1518,15 @@
     <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C34" s="4">
-        <f t="shared" ref="C34" si="8">C13</f>
+        <f t="shared" ref="C34" si="9">C13</f>
         <v>0</v>
       </c>
       <c r="D34" s="27" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="3"/>
@@ -1521,15 +1536,15 @@
     <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C35" s="4">
-        <f t="shared" ref="C35" si="9">C14</f>
+        <f t="shared" ref="C35" si="10">C14</f>
         <v>0</v>
       </c>
       <c r="D35" s="27" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="3"/>
@@ -1539,15 +1554,15 @@
     <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C36" s="4">
-        <f t="shared" ref="C36" si="10">C15</f>
+        <f t="shared" ref="C36" si="11">C15</f>
         <v>0</v>
       </c>
       <c r="D36" s="27" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="3"/>
@@ -1592,14 +1607,14 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
@@ -1625,15 +1640,15 @@
         <f>IF(B10=0,(""),(B10))</f>
         <v/>
       </c>
-      <c r="C42" s="93">
+      <c r="C42" s="68">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="D42" s="93">
+      <c r="D42" s="68">
         <f>E10</f>
         <v>0</v>
       </c>
-      <c r="E42" s="94">
+      <c r="E42" s="69">
         <f>C42-D42</f>
         <v>0</v>
       </c>
@@ -1643,19 +1658,19 @@
     <row r="43" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="14" t="str">
-        <f t="shared" ref="B43:B47" si="11">IF(B11=0,(""),(B11))</f>
-        <v/>
-      </c>
-      <c r="C43" s="93">
+        <f t="shared" ref="B43:B47" si="12">IF(B11=0,(""),(B11))</f>
+        <v/>
+      </c>
+      <c r="C43" s="68">
         <f>D11</f>
         <v>0</v>
       </c>
-      <c r="D43" s="93">
+      <c r="D43" s="68">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="E43" s="95">
-        <f t="shared" ref="E43" si="12">C43-D43</f>
+      <c r="E43" s="70">
+        <f t="shared" ref="E43" si="13">C43-D43</f>
         <v>0</v>
       </c>
       <c r="F43" s="3"/>
@@ -1664,19 +1679,19 @@
     <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C44" s="93">
-        <f t="shared" ref="C44:D44" si="13">D12</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="93">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="95">
-        <f t="shared" ref="E44:E47" si="14">C44-D44</f>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C44" s="68">
+        <f t="shared" ref="C44:D44" si="14">D12</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="68">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="70">
+        <f t="shared" ref="E44:E47" si="15">C44-D44</f>
         <v>0</v>
       </c>
       <c r="F44" s="3"/>
@@ -1685,19 +1700,19 @@
     <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C45" s="93">
-        <f t="shared" ref="C45:D45" si="15">D13</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="93">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C45" s="68">
+        <f t="shared" ref="C45:D45" si="16">D13</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="68">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="70">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="95">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F45" s="3"/>
@@ -1706,19 +1721,19 @@
     <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C46" s="93">
-        <f t="shared" ref="C46:D46" si="16">D14</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="93">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C46" s="68">
+        <f t="shared" ref="C46:D46" si="17">D14</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="68">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="70">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F46" s="3"/>
@@ -1727,19 +1742,19 @@
     <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="C47" s="96">
-        <f t="shared" ref="C47:D47" si="17">D15</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="96">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C47" s="71">
+        <f t="shared" ref="C47:D47" si="18">D15</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="71">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="72">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F47" s="3"/>
@@ -1766,14 +1781,14 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="31.5">
@@ -1803,11 +1818,11 @@
         <f>D31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="89">
+      <c r="D52" s="64">
         <f>E42</f>
         <v>0</v>
       </c>
-      <c r="E52" s="94" t="e">
+      <c r="E52" s="69" t="e">
         <f>D52*C52</f>
         <v>#DIV/0!</v>
       </c>
@@ -1817,19 +1832,19 @@
     <row r="53" spans="1:7">
       <c r="A53" s="3"/>
       <c r="B53" s="14" t="str">
-        <f t="shared" ref="B53:B57" si="18">IF(B11=0,(""),(B11))</f>
+        <f t="shared" ref="B53:B57" si="19">IF(B11=0,(""),(B11))</f>
         <v/>
       </c>
       <c r="C53" s="35" t="e">
         <f>D32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="98">
+      <c r="D53" s="73">
         <f>E43</f>
         <v>0</v>
       </c>
-      <c r="E53" s="95" t="e">
-        <f t="shared" ref="E53" si="19">D53*C53</f>
+      <c r="E53" s="70" t="e">
+        <f t="shared" ref="E53" si="20">D53*C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="3"/>
@@ -1838,19 +1853,19 @@
     <row r="54" spans="1:7">
       <c r="A54" s="3"/>
       <c r="B54" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="C54" s="35" t="e">
-        <f t="shared" ref="C54:C57" si="20">D33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="98">
-        <f t="shared" ref="D54:D57" si="21">E44</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="95" t="e">
-        <f t="shared" ref="E54:E57" si="22">D54*C54</f>
+        <f t="shared" ref="C54:C57" si="21">D33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" s="73">
+        <f t="shared" ref="D54:D57" si="22">E44</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="70" t="e">
+        <f t="shared" ref="E54:E57" si="23">D54*C54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="3"/>
@@ -1859,19 +1874,19 @@
     <row r="55" spans="1:7">
       <c r="A55" s="3"/>
       <c r="B55" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="C55" s="35" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="98">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="95" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="73">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="70" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F55" s="3"/>
@@ -1880,19 +1895,19 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="C56" s="35" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D56" s="98">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="95" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D56" s="73">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="70" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F56" s="3"/>
@@ -1901,19 +1916,19 @@
     <row r="57" spans="1:7">
       <c r="A57" s="3"/>
       <c r="B57" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="C57" s="35" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D57" s="98">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="95" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D57" s="73">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="70" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F57" s="3"/>
@@ -1928,7 +1943,7 @@
         <f>SUM(C52:C57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="99">
+      <c r="D58" s="74">
         <f>SUM(D52:D57)</f>
         <v>0</v>
       </c>
@@ -1951,14 +1966,14 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="42" customHeight="1">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7">
@@ -1979,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="14"/>
-      <c r="F62" s="80" t="s">
+      <c r="F62" s="57" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="47"/>
@@ -1991,7 +2006,7 @@
       <c r="E63" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="81">
+      <c r="F63" s="58">
         <f>G10</f>
         <v>0</v>
       </c>
@@ -2002,44 +2017,44 @@
       <c r="B64" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="78" t="e">
+      <c r="C64" s="55" t="e">
         <f>F10/E58</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E64" s="79"/>
-      <c r="F64" s="82" t="e">
+      <c r="E64" s="56"/>
+      <c r="F64" s="59" t="e">
         <f>(F63+F10)/E58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G64" s="47"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="84" t="s">
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
     </row>
     <row r="66" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A66" s="84"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
+      <c r="A66" s="76"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
     </row>
     <row r="67" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="64"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
@@ -2047,29 +2062,29 @@
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
     </row>
     <row r="69" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A69" s="84"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2077,13 +2092,13 @@
     </row>
     <row r="71" spans="1:7" ht="31.5">
       <c r="A71" s="3"/>
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="87" t="s">
+      <c r="C71" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="87" t="s">
+      <c r="D71" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E71" s="3"/>
@@ -2111,15 +2126,15 @@
     <row r="73" spans="1:7">
       <c r="A73" s="3"/>
       <c r="B73" s="17" t="str">
-        <f t="shared" ref="B73:B77" si="23">IF(B11=0,(""),(B11))</f>
+        <f t="shared" ref="B73:B77" si="24">IF(B11=0,(""),(B11))</f>
         <v/>
       </c>
       <c r="C73" s="4" t="e">
-        <f t="shared" ref="C73:C77" si="24">IF($C$64*D32=0,(""),($C$64*D32))</f>
+        <f t="shared" ref="C73:C77" si="25">IF($C$64*D32=0,(""),($C$64*D32))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D73" s="18" t="e">
-        <f t="shared" ref="D73:D77" si="25">IF($F$64*D32=0,(""),($F$64*D32))</f>
+        <f t="shared" ref="D73:D77" si="26">IF($F$64*D32=0,(""),($F$64*D32))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E73" s="3"/>
@@ -2129,15 +2144,15 @@
     <row r="74" spans="1:7">
       <c r="A74" s="3"/>
       <c r="B74" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C74" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D74" s="18" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E74" s="3"/>
@@ -2147,15 +2162,15 @@
     <row r="75" spans="1:7">
       <c r="A75" s="3"/>
       <c r="B75" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C75" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D75" s="18" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E75" s="3"/>
@@ -2165,15 +2180,15 @@
     <row r="76" spans="1:7">
       <c r="A76" s="3"/>
       <c r="B76" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C76" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D76" s="18" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E76" s="3"/>
@@ -2182,16 +2197,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3"/>
-      <c r="B77" s="79" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="C77" s="88" t="e">
+      <c r="B77" s="56" t="str">
         <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="C77" s="63" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D77" s="19" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E77" s="3"/>
@@ -2283,15 +2298,15 @@
     <row r="85" spans="1:7">
       <c r="A85" s="3"/>
       <c r="B85" s="14" t="str">
-        <f t="shared" ref="B85:B89" si="26">IF(B11=0,(""),(B11))</f>
+        <f t="shared" ref="B85:B89" si="27">IF(B11=0,(""),(B11))</f>
         <v/>
       </c>
       <c r="C85" s="42" t="str">
-        <f t="shared" ref="C85:C89" si="27">IF(B85="",(""),(C73*D21))</f>
+        <f t="shared" ref="C85:C89" si="28">IF(B85="",(""),(C73*D21))</f>
         <v/>
       </c>
       <c r="D85" s="42" t="str">
-        <f t="shared" ref="D85:D89" si="28">IF(B85="",(""),(D73*D21))</f>
+        <f t="shared" ref="D85:D89" si="29">IF(B85="",(""),(D73*D21))</f>
         <v/>
       </c>
       <c r="E85" s="3"/>
@@ -2301,15 +2316,15 @@
     <row r="86" spans="1:7">
       <c r="A86" s="3"/>
       <c r="B86" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C86" s="42" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D86" s="42" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E86" s="3"/>
@@ -2319,15 +2334,15 @@
     <row r="87" spans="1:7">
       <c r="A87" s="3"/>
       <c r="B87" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C87" s="42" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D87" s="42" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E87" s="3"/>
@@ -2337,15 +2352,15 @@
     <row r="88" spans="1:7">
       <c r="A88" s="3"/>
       <c r="B88" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C88" s="42" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D88" s="42" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E88" s="3"/>
@@ -2355,15 +2370,15 @@
     <row r="89" spans="1:7">
       <c r="A89" s="3"/>
       <c r="B89" s="14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C89" s="42" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D89" s="42" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E89" s="3"/>
@@ -2397,6 +2412,7 @@
       <c r="G91" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="CK8V9lzr2Og8El4bn8phoqTMroOWzl60MHsrkqmAa9m7/VjlXD7jqZl1lvfU8uQi/DyJWyUjfCEY+H1buXIi9A==" saltValue="2wYyqNW/GD6xP0AM1iAqRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="A68:G69"/>
@@ -2415,6 +2431,6 @@
     <mergeCell ref="E65:G66"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>